--- a/biology/Microbiologie/Thermomicrobiota/Thermomicrobiota.xlsx
+++ b/biology/Microbiologie/Thermomicrobiota/Thermomicrobiota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Thermomicrobiota sont un embranchement (ou phylum, ou encore division) du règne des Bacteria. Son nom provient de Thermomicrobium qui est le genre type de cet embranchement.
-En 2022 selon la LPSN  (2 décembre 2022)[2] cet embranchement ne comporte qu'une seule classe, les Thermomicrobia Garrity &amp; Holt 2002.
+En 2022 selon la LPSN  (2 décembre 2022) cet embranchement ne comporte qu'une seule classe, les Thermomicrobia Garrity &amp; Holt 2002.
 </t>
         </is>
       </c>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie du phylum Thermomicrobiota est la suivante : Ther.mo.mi.cro.bi.o’ta N.L. neut. n. Thermomicrobium, genre type du phylum; N.L. neut. pl. n. suff. -ota, suffixe utilisé pour définir un phylum; N.L. neut. pl. n. Thermomicrobiota, le phylum des Thermomicrobium[1],[3].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du phylum Thermomicrobiota est la suivante : Ther.mo.mi.cro.bi.o’ta N.L. neut. n. Thermomicrobium, genre type du phylum; N.L. neut. pl. n. suff. -ota, suffixe utilisé pour définir un phylum; N.L. neut. pl. n. Thermomicrobiota, le phylum des Thermomicrobium,.
 </t>
         </is>
       </c>
